--- a/chiro/odk_form/form_odk_chiro.xlsx
+++ b/chiro/odk_form/form_odk_chiro.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="275">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -262,7 +262,7 @@
     <t xml:space="preserve">begin repeat</t>
   </si>
   <si>
-    <t xml:space="preserve">observer</t>
+    <t xml:space="preserve">observers</t>
   </si>
   <si>
     <t xml:space="preserve">Observat.eur.rice.s</t>
@@ -353,7 +353,7 @@
     <t xml:space="preserve">Boucle pour renseigner l(es) observation(s)</t>
   </si>
   <si>
-    <t xml:space="preserve">observation</t>
+    <t xml:space="preserve">observations</t>
   </si>
   <si>
     <t xml:space="preserve">Espèce(s) observées</t>
@@ -810,6 +810,9 @@
     <t xml:space="preserve">visit.observer</t>
   </si>
   <si>
+    <t xml:space="preserve">observer</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nom de la boucle</t>
   </si>
   <si>
@@ -833,6 +836,9 @@
   </si>
   <si>
     <t xml:space="preserve">medias_visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">observation</t>
   </si>
   <si>
     <t xml:space="preserve">Valeur = taxref.cd_nom</t>
@@ -1400,10 +1406,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C64" activeCellId="0" sqref="C64"/>
+      <selection pane="bottomLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.55"/>
@@ -2806,7 +2812,7 @@
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55859375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.78"/>
@@ -3284,7 +3290,7 @@
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55859375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.89"/>
@@ -3351,12 +3357,12 @@
       <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55859375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="33" width="14.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="34" width="29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="34" width="17.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="34" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="34" width="9.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="34" width="18.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="34" width="44.66"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="34" width="11.55"/>
@@ -3556,24 +3562,24 @@
         <v>257</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>76</v>
+        <v>258</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
       <c r="E16" s="38"/>
       <c r="F16" s="38" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="36" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B17" s="37" t="s">
         <v>80</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D17" s="38" t="s">
         <v>242</v>
@@ -3585,7 +3591,7 @@
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="36" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B18" s="37" t="s">
         <v>66</v>
@@ -3596,12 +3602,12 @@
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="38" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="36" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B19" s="37" t="s">
         <v>72</v>
@@ -3612,12 +3618,12 @@
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="38" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="36" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B20" s="37" t="s">
         <v>101</v>
@@ -3631,10 +3637,10 @@
     </row>
     <row r="21" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="36" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C21" s="38"/>
       <c r="D21" s="38" t="s">
@@ -3644,15 +3650,15 @@
         <v>99999</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="36" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C22" s="38"/>
       <c r="D22" s="38" t="s">
@@ -3663,7 +3669,7 @@
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="36" t="s">
-        <v>106</v>
+        <v>267</v>
       </c>
       <c r="B23" s="37" t="s">
         <v>113</v>
@@ -3674,12 +3680,12 @@
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="38" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="36" t="s">
-        <v>106</v>
+        <v>267</v>
       </c>
       <c r="B24" s="37" t="s">
         <v>147</v>
@@ -3693,7 +3699,7 @@
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="36" t="s">
-        <v>106</v>
+        <v>267</v>
       </c>
       <c r="B25" s="37" t="s">
         <v>152</v>
@@ -3727,7 +3733,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3766,30 +3772,30 @@
   <sheetData>
     <row r="1" s="41" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="41" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>249</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="40" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B2" s="42" t="n">
         <v>44904</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/chiro/odk_form/form_odk_chiro.xlsx
+++ b/chiro/odk_form/form_odk_chiro.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="278">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -111,14 +111,42 @@
     <t xml:space="preserve">presentation</t>
   </si>
   <si>
-    <t xml:space="preserve">Titre présentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Description du protocole**
-Emplacement pour décrire succinctement le protocole au besoin.
-Possibilité d'ajouter des liens vers un siteUn exemple de lien [ICI](https://geonature.fr).
-Cette application a été développée par une communauté bienveillante issue des PNx et de l'OFB.
+    <t xml:space="preserve">Formulaire chiroptères</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Protocole monitoring pour le suivi des gites de chiroptères
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Le protocole au format PDF peut-être téléchargé [ICI](https://geonature.fr/documents/procedures/2023-GeoNature-doc-chiro.pdf).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Cette application a été développée par une communauté bienveillante issue des PNx et de l'OFB.
 Avec les contributions de la **communauté ODK** sur [le forum d’ODK](https://forum.getodk.org).</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">chiro.png</t>
@@ -223,13 +251,10 @@
     <t xml:space="preserve">Visite</t>
   </si>
   <si>
-    <t xml:space="preserve">field list</t>
-  </si>
-  <si>
     <t xml:space="preserve">Date et heure du début des observations</t>
   </si>
   <si>
-    <t xml:space="preserve">date time</t>
+    <t xml:space="preserve">date</t>
   </si>
   <si>
     <t xml:space="preserve">visit_date_min</t>
@@ -247,15 +272,6 @@
     <t xml:space="preserve">calendar</t>
   </si>
   <si>
-    <t xml:space="preserve">Date et heure de la fin des observations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visit_date_max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date et heure de fin :</t>
-  </si>
-  <si>
     <t xml:space="preserve">Boucle pour renseigner le(s) observateur(s)</t>
   </si>
   <si>
@@ -286,52 +302,67 @@
     <t xml:space="preserve">end repeat</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs_ext</t>
+    <t xml:space="preserve">Choix d'un observateur externe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">observers_ext</t>
   </si>
   <si>
     <t xml:space="preserve">Observat.eur.rice.s extérieurs</t>
   </si>
   <si>
-    <t xml:space="preserve">Choix d'un observateur externe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nom_obs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/3.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">/2</t>
   </si>
   <si>
+    <t xml:space="preserve">integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sheet_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">false</t>
+  </si>
+  <si>
     <t xml:space="preserve">dataset</t>
   </si>
   <si>
+    <t xml:space="preserve">field-list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one_from_file gn_jdds.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choisir jeu de données</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value=id_dataset, label=dataset_name</t>
+  </si>
+  <si>
     <t xml:space="preserve">select_multiple guano</t>
   </si>
   <si>
-    <t xml:space="preserve">true_guano</t>
+    <t xml:space="preserve">guano_presency</t>
   </si>
   <si>
     <t xml:space="preserve">Cocher si présent</t>
   </si>
   <si>
-    <t xml:space="preserve">quick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com_guano</t>
+    <t xml:space="preserve">guano_comment</t>
   </si>
   <si>
     <t xml:space="preserve">Renseignement sur le guano présent (taille, fraîcheur, qualité)</t>
   </si>
   <si>
-    <t xml:space="preserve">${true_guano} = 'guano'</t>
+    <t xml:space="preserve">${guano_presency} = 'guano'</t>
   </si>
   <si>
     <t xml:space="preserve">Commentaires propre à la visite
@@ -350,6 +381,18 @@
     <t xml:space="preserve">/4</t>
   </si>
   <si>
+    <t xml:space="preserve">présence de chiroptères</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_multiple chiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no_data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cocher si présence de chiroptères</t>
+  </si>
+  <si>
     <t xml:space="preserve">Boucle pour renseigner l(es) observation(s)</t>
   </si>
   <si>
@@ -359,15 +402,15 @@
     <t xml:space="preserve">Espèce(s) observées</t>
   </si>
   <si>
+    <t xml:space="preserve">${no_data} = 'chiro'</t>
+  </si>
+  <si>
     <t xml:space="preserve">sp_choice</t>
   </si>
   <si>
     <t xml:space="preserve">Choisir l'espèce</t>
   </si>
   <si>
-    <t xml:space="preserve">field-list</t>
-  </si>
-  <si>
     <t xml:space="preserve">Choix de l'espèce d'après une liste avec autocomplétion active à partir de 3 caractères saisis</t>
   </si>
   <si>
@@ -389,19 +432,22 @@
     <t xml:space="preserve">select_one_from_file gn_nomenclatures.csv</t>
   </si>
   <si>
-    <t xml:space="preserve">id_comptm</t>
+    <t xml:space="preserve">id_nomenclature_behaviour</t>
   </si>
   <si>
     <t xml:space="preserve">Comportement</t>
   </si>
   <si>
+    <t xml:space="preserve">quick</t>
+  </si>
+  <si>
     <t xml:space="preserve">mnemonique = 'OCC_COMPORTEMENT'</t>
   </si>
   <si>
     <t xml:space="preserve">value=id_nomenclature,label=label_default</t>
   </si>
   <si>
-    <t xml:space="preserve">id_et</t>
+    <t xml:space="preserve">id_nomenclature_bio_condition</t>
   </si>
   <si>
     <t xml:space="preserve">Etat biologique</t>
@@ -410,7 +456,7 @@
     <t xml:space="preserve">mnemonique = 'ETA_BIO'</t>
   </si>
   <si>
-    <t xml:space="preserve">id_stat_bio</t>
+    <t xml:space="preserve">id_nomenclature_bio_status</t>
   </si>
   <si>
     <t xml:space="preserve">Statut biologique</t>
@@ -419,7 +465,7 @@
     <t xml:space="preserve">mnemonique = 'STATUT_BIO'</t>
   </si>
   <si>
-    <t xml:space="preserve">id_tech_obs</t>
+    <t xml:space="preserve">id_nomenclature_obs_technique</t>
   </si>
   <si>
     <t xml:space="preserve">Technique d'observation</t>
@@ -428,7 +474,7 @@
     <t xml:space="preserve">mnemonique = 'METH_OBS'</t>
   </si>
   <si>
-    <t xml:space="preserve">id_sv</t>
+    <t xml:space="preserve">id_nomenclature_life_stage</t>
   </si>
   <si>
     <t xml:space="preserve">Stade de vie</t>
@@ -437,7 +483,7 @@
     <t xml:space="preserve">mnemonique = 'STADE_VIE'</t>
   </si>
   <si>
-    <t xml:space="preserve">id_sexe</t>
+    <t xml:space="preserve">id_nomenclature_sex</t>
   </si>
   <si>
     <t xml:space="preserve">Sexe</t>
@@ -446,18 +492,6 @@
     <t xml:space="preserve">mnemonique = 'SEXE'</t>
   </si>
   <si>
-    <t xml:space="preserve">integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id_den</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dénombrement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/9</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nom de l'espèce</t>
   </si>
   <si>
@@ -471,6 +505,12 @@
   </si>
   <si>
     <t xml:space="preserve">Comptage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dénombrement (minimum)</t>
   </si>
   <si>
     <t xml:space="preserve">Commentaires propres à l'observation
@@ -486,21 +526,6 @@
     <t xml:space="preserve">/10</t>
   </si>
   <si>
-    <t xml:space="preserve">Import d'une photo prise avec l'appareil du téléphone ou d'une image stockée dans le téléphone propre à chaque observation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medias_observation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veuillez prendre une photo de l'observation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max-pixels=1024</t>
-  </si>
-  <si>
     <t xml:space="preserve">/8</t>
   </si>
   <si>
@@ -537,9 +562,6 @@
     <t xml:space="preserve">oui</t>
   </si>
   <si>
-    <t xml:space="preserve">false</t>
-  </si>
-  <si>
     <t xml:space="preserve">non</t>
   </si>
   <si>
@@ -714,6 +736,21 @@
     <t xml:space="preserve">Présence de guano</t>
   </si>
   <si>
+    <t xml:space="preserve">chiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Présence de chiroptères</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parataxon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myotis_de_grandes_tailles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myotis de grandes tailles</t>
+  </si>
+  <si>
     <t xml:space="preserve">form_title</t>
   </si>
   <si>
@@ -729,7 +766,7 @@
     <t xml:space="preserve">allow_choice_duplicates</t>
   </si>
   <si>
-    <t xml:space="preserve">formulaire_chiro</t>
+    <t xml:space="preserve">form_odk_chiro</t>
   </si>
   <si>
     <t xml:space="preserve">niveau</t>
@@ -783,9 +820,6 @@
     <t xml:space="preserve">first_use_date</t>
   </si>
   <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
     <t xml:space="preserve">medias_site_group</t>
   </si>
   <si>
@@ -825,10 +859,10 @@
     <t xml:space="preserve">Celle remplie par l'utilisateur</t>
   </si>
   <si>
+    <t xml:space="preserve">visit_date_max</t>
+  </si>
+  <si>
     <t xml:space="preserve">optionnel - Date fin visite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id_dataset</t>
   </si>
   <si>
     <t xml:space="preserve">Valeur = t_datasets.id_dataset
@@ -842,6 +876,9 @@
   </si>
   <si>
     <t xml:space="preserve">Valeur = taxref.cd_nom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medias_observation</t>
   </si>
   <si>
     <t xml:space="preserve">Version</t>
@@ -872,7 +909,7 @@
     <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -923,6 +960,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
@@ -930,7 +974,22 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -942,7 +1001,13 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -1089,7 +1154,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1126,7 +1191,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1134,7 +1199,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1142,15 +1207,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1158,31 +1231,43 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1190,7 +1275,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1198,11 +1283,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1222,7 +1307,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1230,11 +1315,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="8" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1254,7 +1339,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1262,7 +1347,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1401,36 +1486,36 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U66"/>
+  <dimension ref="A1:U77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
+      <selection pane="bottomLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="42.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="32.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="62.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="2" width="65.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="2" width="65.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="40.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="46.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="46.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="47.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="17.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="31.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="39.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="33.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="24.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="24.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="28.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="29.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="47.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="28.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="23.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="65.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="23.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="65.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1568,7 +1653,7 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="123.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="86.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1825,7 +1910,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
@@ -1865,9 +1950,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="5" t="s">
-        <v>63</v>
-      </c>
+      <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
@@ -1880,65 +1963,45 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="E23" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>34</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J24" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B25" s="8" t="n">
         <v>3</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -1959,31 +2022,34 @@
     </row>
     <row r="26" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>42</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
@@ -2004,50 +2070,19 @@
       <c r="T27" s="10"/>
       <c r="U27" s="10"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-    </row>
     <row r="29" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
@@ -2067,36 +2102,32 @@
       <c r="U29" s="12"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
+      <c r="A30" s="0"/>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+      <c r="L30" s="0"/>
+      <c r="M30" s="0"/>
+      <c r="N30" s="0"/>
+      <c r="O30" s="0"/>
+      <c r="P30" s="0"/>
+      <c r="Q30" s="0"/>
+      <c r="R30" s="0"/>
+      <c r="S30" s="0"/>
+      <c r="T30" s="0"/>
+      <c r="U30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>51</v>
@@ -2120,673 +2151,916 @@
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5" t="n">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0"/>
+      <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
+      <c r="I33" s="0"/>
+      <c r="J33" s="0"/>
+      <c r="K33" s="0"/>
+      <c r="L33" s="0"/>
+      <c r="M33" s="0"/>
+      <c r="N33" s="0"/>
+      <c r="O33" s="0"/>
+      <c r="P33" s="0"/>
+      <c r="Q33" s="0"/>
+      <c r="R33" s="0"/>
+      <c r="S33" s="0"/>
+      <c r="T33" s="0"/>
+      <c r="U33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0"/>
+      <c r="B34" s="0"/>
+      <c r="C34" s="0"/>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0"/>
+      <c r="H34" s="0"/>
+      <c r="I34" s="0"/>
+      <c r="J34" s="0"/>
+      <c r="K34" s="0"/>
+      <c r="L34" s="0"/>
+      <c r="M34" s="0"/>
+      <c r="N34" s="0"/>
+      <c r="O34" s="0"/>
+      <c r="P34" s="0"/>
+      <c r="Q34" s="0"/>
+      <c r="R34" s="0"/>
+      <c r="S34" s="0"/>
+      <c r="T34" s="0"/>
+      <c r="U34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C35" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J35" s="14"/>
-      <c r="L35" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="D35" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N36" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="R36" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="15"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="J38" s="16"/>
+      <c r="L38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="N36" s="15" t="s">
+      <c r="E39" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
+      <c r="N39" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37" s="16" t="s">
+    </row>
+    <row r="40" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="C40" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4" t="s">
+      <c r="E40" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6" t="s">
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N39" s="4"/>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N40" s="4"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B41" s="8" t="n">
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N42" s="4"/>
+    </row>
+    <row r="43" s="21" customFormat="true" ht="24.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0"/>
+      <c r="B44" s="0"/>
+      <c r="C44" s="0"/>
+      <c r="D44" s="0"/>
+      <c r="E44" s="0"/>
+      <c r="F44" s="0"/>
+      <c r="G44" s="0"/>
+      <c r="H44" s="0"/>
+      <c r="I44" s="0"/>
+      <c r="J44" s="0"/>
+      <c r="K44" s="0"/>
+      <c r="L44" s="0"/>
+      <c r="M44" s="0"/>
+      <c r="N44" s="0"/>
+      <c r="O44" s="0"/>
+      <c r="P44" s="0"/>
+      <c r="Q44" s="0"/>
+      <c r="R44" s="0"/>
+      <c r="S44" s="0"/>
+      <c r="T44" s="0"/>
+      <c r="U44" s="0"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5" t="n">
+      <c r="C45" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C46" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D44" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-    </row>
-    <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E45" s="4" t="s">
+      <c r="D46" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="R45" s="2" t="s">
+      <c r="E46" s="13" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="R46" s="20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+    </row>
+    <row r="47" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+    </row>
+    <row r="52" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="E47" s="21" t="s">
+      <c r="D52" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="L47" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="P47" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="R47" s="20" t="s">
+      <c r="L52" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="R52" s="23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" s="21" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D48" s="2" t="s">
+      <c r="B53" s="1"/>
+      <c r="C53" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E48" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="P48" s="2" t="s">
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="R48" s="20" t="s">
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+    </row>
+    <row r="54" s="21" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="P49" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="R49" s="20" t="s">
+      <c r="B54" s="1"/>
+      <c r="C54" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+    </row>
+    <row r="55" s="21" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="P50" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="R50" s="20" t="s">
+      <c r="B55" s="1"/>
+      <c r="C55" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+    </row>
+    <row r="56" s="21" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="P51" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="R51" s="20" t="s">
+      <c r="B56" s="1"/>
+      <c r="C56" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+    </row>
+    <row r="57" s="21" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q52" s="20"/>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6" t="s">
+      <c r="B57" s="1"/>
+      <c r="C57" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="E57" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0"/>
+      <c r="B58" s="0"/>
+      <c r="C58" s="0"/>
+      <c r="D58" s="0"/>
+      <c r="E58" s="0"/>
+      <c r="F58" s="0"/>
+      <c r="G58" s="0"/>
+      <c r="H58" s="0"/>
+      <c r="I58" s="0"/>
+      <c r="J58" s="0"/>
+      <c r="K58" s="0"/>
+      <c r="L58" s="0"/>
+      <c r="M58" s="0"/>
+      <c r="N58" s="0"/>
+      <c r="O58" s="0"/>
+      <c r="P58" s="0"/>
+      <c r="Q58" s="0"/>
+      <c r="R58" s="0"/>
+      <c r="S58" s="0"/>
+      <c r="T58" s="0"/>
+      <c r="U58" s="0"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0"/>
+      <c r="B64" s="0"/>
+      <c r="C64" s="0"/>
+      <c r="D64" s="0"/>
+      <c r="E64" s="0"/>
+      <c r="F64" s="0"/>
+      <c r="G64" s="0"/>
+      <c r="H64" s="0"/>
+      <c r="I64" s="0"/>
+      <c r="J64" s="0"/>
+      <c r="K64" s="0"/>
+      <c r="L64" s="0"/>
+      <c r="M64" s="0"/>
+      <c r="N64" s="0"/>
+      <c r="O64" s="0"/>
+      <c r="P64" s="0"/>
+      <c r="Q64" s="0"/>
+      <c r="R64" s="0"/>
+      <c r="S64" s="0"/>
+      <c r="T64" s="0"/>
+      <c r="U64" s="0"/>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="6"/>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K67" s="4"/>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+    </row>
+    <row r="69" s="21" customFormat="true" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E69" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="26"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+    </row>
+    <row r="70" customFormat="false" ht="27.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0"/>
+      <c r="B70" s="0"/>
+      <c r="C70" s="0"/>
+      <c r="D70" s="0"/>
+      <c r="E70" s="0"/>
+      <c r="F70" s="0"/>
+      <c r="G70" s="0"/>
+      <c r="H70" s="0"/>
+      <c r="I70" s="0"/>
+      <c r="J70" s="0"/>
+      <c r="K70" s="0"/>
+      <c r="L70" s="0"/>
+      <c r="M70" s="0"/>
+      <c r="N70" s="0"/>
+      <c r="O70" s="0"/>
+      <c r="P70" s="0"/>
+      <c r="Q70" s="0"/>
+      <c r="R70" s="0"/>
+      <c r="S70" s="0"/>
+      <c r="T70" s="0"/>
+      <c r="U70" s="0"/>
+    </row>
+    <row r="71" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
-      <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
-      <c r="U53" s="6"/>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="K56" s="4"/>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
-      <c r="T57" s="4"/>
-      <c r="U57" s="4"/>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
-      <c r="T58" s="4"/>
-      <c r="U58" s="4"/>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="5"/>
-    </row>
-    <row r="60" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="17"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
-      <c r="S61" s="6"/>
-      <c r="T61" s="6"/>
-      <c r="U61" s="6"/>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-    </row>
-    <row r="64" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D64" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="R64" s="2" t="s">
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
+      <c r="T72" s="6"/>
+      <c r="U72" s="6"/>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+    </row>
+    <row r="75" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0"/>
+      <c r="B75" s="0"/>
+      <c r="C75" s="0"/>
+      <c r="D75" s="0"/>
+      <c r="E75" s="0"/>
+      <c r="F75" s="0"/>
+      <c r="G75" s="0"/>
+      <c r="H75" s="0"/>
+      <c r="I75" s="0"/>
+      <c r="J75" s="0"/>
+      <c r="K75" s="0"/>
+      <c r="L75" s="0"/>
+      <c r="M75" s="0"/>
+      <c r="N75" s="0"/>
+      <c r="O75" s="0"/>
+      <c r="P75" s="0"/>
+      <c r="Q75" s="0"/>
+      <c r="R75" s="0"/>
+      <c r="S75" s="0"/>
+      <c r="T75" s="0"/>
+      <c r="U75" s="0"/>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="10"/>
+      <c r="B77" s="10" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="11"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="10"/>
-      <c r="R66" s="10"/>
-      <c r="S66" s="10"/>
-      <c r="T66" s="10"/>
-      <c r="U66" s="10"/>
+      <c r="C77" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="10"/>
+      <c r="S77" s="10"/>
+      <c r="T77" s="10"/>
+      <c r="U77" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:U66"/>
@@ -2806,466 +3080,488 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C61" activeCellId="0" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.45"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22" t="s">
+    <row r="1" s="28" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="22" t="s">
+    </row>
+    <row r="2" s="31" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="29" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="2" s="26" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="s">
+      <c r="B2" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="25" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="B4" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>48</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="30" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="7" s="27" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="25" t="s">
+      <c r="B7" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="C7" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="D7" s="30"/>
+    </row>
+    <row r="8" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="D7" s="25"/>
-    </row>
-    <row r="8" s="27" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="B8" s="25" t="s">
+      <c r="D8" s="30"/>
+    </row>
+    <row r="10" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="B10" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="25"/>
-    </row>
-    <row r="10" s="27" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="25" t="s">
+      <c r="C10" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="B10" s="27" t="s">
+    </row>
+    <row r="11" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C11" s="30" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="11" s="27" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="25" t="s">
+    <row r="12" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+    </row>
+    <row r="15" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" s="27" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="25" t="s">
+    </row>
+    <row r="16" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" s="28" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="32"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+    </row>
+    <row r="20" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" s="27" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25" t="s">
+    </row>
+    <row r="21" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+    </row>
+    <row r="25" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" s="27" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-    </row>
-    <row r="15" s="27" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="16" s="27" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" s="27" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18" s="27" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" s="23" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="27"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-    </row>
-    <row r="20" s="27" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" s="27" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="B21" s="25" t="s">
+    </row>
+    <row r="26" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="B28" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C28" s="30" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="22" s="27" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" s="27" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="24" s="27" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-    </row>
-    <row r="25" s="27" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="26" s="27" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="27" s="27" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="B27" s="25" t="s">
+    <row r="29" s="28" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+    </row>
+    <row r="30" s="31" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="B30" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" s="31" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="B31" s="29" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="28" s="27" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="29" s="23" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-    </row>
-    <row r="30" s="26" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="28" t="s">
+      <c r="C31" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="B30" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="31" s="26" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="B31" s="24" t="s">
+    </row>
+    <row r="32" s="31" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="B32" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C32" s="29" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="32" s="26" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="B32" s="24" t="s">
+    <row r="33" s="31" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="B33" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C33" s="29" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="33" s="26" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="B33" s="24" t="s">
+    <row r="34" s="31" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C34" s="29" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="34" s="26" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="B34" s="24" t="s">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="B36" s="0" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="C36" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="D36" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="C36" s="0" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B37" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="C37" s="0" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="B37" s="0" t="s">
+      <c r="D37" s="0" t="s">
         <v>210</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="29" t="s">
-        <v>214</v>
+        <v>211</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="B40" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="B40" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>216</v>
+      <c r="C40" s="34" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>217</v>
+        <v>211</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>219</v>
+        <v>211</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="C43" s="29" t="s">
-        <v>220</v>
+        <v>211</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="B44" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>221</v>
+        <v>211</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="29" t="s">
-        <v>222</v>
+        <v>211</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="B46" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C48" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="C46" s="29" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B50" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C50" s="0" t="s">
         <v>225</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3286,11 +3582,11 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.89"/>
@@ -3300,34 +3596,34 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>228</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="A1" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="B1" s="35" t="s">
         <v>230</v>
       </c>
+      <c r="C1" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" s="32" t="n">
+      <c r="A2" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3349,367 +3645,367 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
       <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="33" width="14.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="34" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="34" width="17.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="34" width="9.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="34" width="18.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="34" width="44.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="34" width="11.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="38" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="39" width="28.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="39" width="17.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="39" width="9.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="39" width="18.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="39" width="44.65"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="39" width="11.56"/>
   </cols>
   <sheetData>
-    <row r="1" s="33" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="D1" s="35" t="s">
+    <row r="1" s="38" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="2" s="33" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="B2" s="37" t="s">
+      <c r="E1" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" s="38" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38" t="s">
-        <v>238</v>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>88</v>
+      <c r="A3" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="B4" s="37" t="s">
+      <c r="A4" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="B5" s="34" t="s">
+      <c r="A5" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="D5" s="34" t="s">
-        <v>88</v>
+      <c r="B5" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>243</v>
+      <c r="A6" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="F7" s="34" t="s">
+      <c r="A7" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="D7" s="39" t="s">
         <v>245</v>
       </c>
+      <c r="F7" s="39" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>247</v>
+      <c r="A8" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>249</v>
+      <c r="A9" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="B10" s="34" t="s">
+      <c r="A10" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>263</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="D10" s="34" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="B11" s="34" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+    </row>
+    <row r="21" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="E21" s="43" t="n">
+        <v>99999</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="D11" s="34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>256</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="36" t="s">
-        <v>260</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>261</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>242</v>
-      </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="36" t="s">
-        <v>260</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="36" t="s">
-        <v>260</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="36" t="s">
-        <v>260</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-    </row>
-    <row r="21" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="36" t="s">
-        <v>260</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>264</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38" t="s">
-        <v>242</v>
-      </c>
-      <c r="E21" s="38" t="n">
-        <v>99999</v>
-      </c>
-      <c r="F21" s="39" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="36" t="s">
-        <v>260</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>266</v>
-      </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38" t="s">
-        <v>251</v>
-      </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38" t="s">
-        <v>242</v>
-      </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38" t="s">
-        <v>268</v>
+      <c r="A23" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
+      <c r="A24" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38" t="s">
-        <v>251</v>
-      </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
+      <c r="A25" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3729,11 +4025,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3752,155 +4048,155 @@
   </sheetPr>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="40" width="11.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="40" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="40" width="103.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="40" width="47.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="40" width="17.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="40" width="46.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="7" style="40" width="9.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="40" width="11.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="45" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="45" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="45" width="103.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="45" width="47.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="45" width="17.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="45" width="46.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="7" style="45" width="9.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="45" width="11.56"/>
   </cols>
   <sheetData>
-    <row r="1" s="41" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="41" t="s">
-        <v>269</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>249</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>270</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>271</v>
-      </c>
-      <c r="E1" s="41" t="s">
+    <row r="1" s="46" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="46" t="s">
         <v>272</v>
       </c>
+      <c r="B1" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>274</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="40" t="s">
-        <v>273</v>
-      </c>
-      <c r="B2" s="42" t="n">
+      <c r="A2" s="45" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="47" t="n">
         <v>44904</v>
       </c>
-      <c r="C2" s="40" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="42"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="42"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="42"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="42"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="42"/>
-      <c r="C7" s="43"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="42"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="42"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="42"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="42"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="42"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="42"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="42"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="42"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="42"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="42"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="42"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="42"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="42"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="42"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="42"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="42"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="42"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="42"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="42"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="42"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="42"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="42"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="42"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="42"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="42"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="42"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="42"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="42"/>
-    </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="42"/>
-      <c r="C36" s="43"/>
+      <c r="C2" s="45" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="47"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="47"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="47"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="47"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="47"/>
+      <c r="C7" s="48"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="47"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="47"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="47"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="47"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="47"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="47"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="47"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="47"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="47"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="47"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="47"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="47"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="47"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="47"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="47"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="47"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="47"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="47"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="47"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="47"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="47"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="47"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="47"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="47"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="47"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="47"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="47"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="47"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="47"/>
+      <c r="C36" s="48"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3911,16 +4207,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<DataMashup xmlns="http://schemas.microsoft.com/DataMashup">AAAAABgDAABQSwMEFAACAAgA73yIVZUluaeoAAAA+QAAABIAHABDb25maWcvUGFja2FnZS54bWwgohgAKKAUAAAAAAAAAAAAAAAAAAAAAAAAAAAAhc8xDoIwGAXgq5DutLUaI+SnDCZOkhhNjGtTCjRCMbRY7ubgkbyCJIq6Ob6Xb3jvcbtDOjR1cFWd1a1J0AxTFCgj21ybMkG9K8IVSjnshDyLUgUjNjYebJ6gyrlLTIj3Hvs5bruSMEpn5JRtD7JSjUAfrP/jUBvrhJEKcTi+xnCGowVeMhZhOlogUw+ZNl/DxsmYAvkpYd3Xru8UL7pwswcyRSDvG/wJUEsDBBQAAgAIAO98iFUPyumrpAAAAOkAAAATABwAW0NvbnRlbnRfVHlwZXNdLnhtbCCiGAAooBQAAAAAAAAAAAAAAAAAAAAAAAAAAABtjksOwjAMRK8SeZ+6sEAINWUB3IALRMH9iOajxkXhbCw4ElcgbXeIpWfmeebzelfHZAfxoDH23inYFCUIcsbfetcqmLiRezjW1fUZKIocdVFBxxwOiNF0ZHUsfCCXncaPVnM+xxaDNnfdEm7LcofGOybHkucfUFdnavQ0sLikLK+1GQdxWnNzlQKmxLjI+JewP3kdwtAbzdnEJG2UdiFxGV5/AVBLAwQUAAIACADvfIhVKIpHuA4AAAARAAAAEwAcAEZvcm11bGFzL1NlY3Rpb24xLm0gohgAKKAUAAAAAAAAAAAAAAAAAAAAAAAAAAAAK05NLsnMz1MIhtCG1gBQSwECLQAUAAIACADvfIhVlSW5p6gAAAD5AAAAEgAAAAAAAAAAAAAAAAAAAAAAQ29uZmlnL1BhY2thZ2UueG1sUEsBAi0AFAACAAgA73yIVQ/K6aukAAAA6QAAABMAAAAAAAAAAAAAAAAA9AAAAFtDb250ZW50X1R5cGVzXS54bWxQSwECLQAUAAIACADvfIhVKIpHuA4AAAARAAAAEwAAAAAAAAAAAAAAAADlAQAARm9ybXVsYXMvU2VjdGlvbjEubVBLBQYAAAAAAwADAMIAAABAAgAAAAAQAQAA77u/PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0idXRmLTgiPz48UGVybWlzc2lvbkxpc3QgeG1sbnM6eHNkPSJodHRwOi8vd3d3LnczLm9yZy8yMDAxL1hNTFNjaGVtYSIgeG1sbnM6eHNpPSJodHRwOi8vd3d3LnczLm9yZy8yMDAxL1hNTFNjaGVtYS1pbnN0YW5jZSI+PENhbkV2YWx1YXRlRnV0dXJlUGFja2FnZXM+ZmFsc2U8L0NhbkV2YWx1YXRlRnV0dXJlUGFja2FnZXM+PEZpcmV3YWxsRW5hYmxlZD50cnVlPC9GaXJld2FsbEVuYWJsZWQ+PC9QZXJtaXNzaW9uTGlzdD6XAQAAAAAAAHUBAADvu788P3htbCB2ZXJzaW9uPSIxLjAiIGVuY29kaW5nPSJ1dGYtOCI/PjxMb2NhbFBhY2thZ2VNZXRhZGF0YUZpbGUgeG1sbnM6eHNkPSJodHRwOi8vd3d3LnczLm9yZy8yMDAxL1hNTFNjaGVtYSIgeG1sbnM6eHNpPSJodHRwOi8vd3d3LnczLm9yZy8yMDAxL1hNTFNjaGVtYS1pbnN0YW5jZSI+PEl0ZW1zPjxJdGVtPjxJdGVtTG9jYXRpb24+PEl0ZW1UeXBlPkFsbEZvcm11bGFzPC9JdGVtVHlwZT48SXRlbVBhdGggLz48L0l0ZW1Mb2NhdGlvbj48U3RhYmxlRW50cmllcz48RW50cnkgVHlwZT0iUmVsYXRpb25zaGlwcyIgVmFsdWU9InNBQUFBQUE9PSIgLz48L1N0YWJsZUVudHJpZXM+PC9JdGVtPjwvSXRlbXM+PC9Mb2NhbFBhY2thZ2VNZXRhZGF0YUZpbGU+FgAAAFBLBQYAAAAAAAAAAAAAAAAAAAAAAADaAAAAAQAAANCMnd8BFdERjHoAwE/Cl+sBAAAA3Oa4ExG97UO0jd8vMLSPbgAAAAACAAAAAAADZgAAwAAAABAAAADIW1ID7zbakb9dHzvZS/5fAAAAAASAAACgAAAAEAAAAGjex9L8F8wCQRV8DOXkl55QAAAAuZ9IzBu0Iy42WRo31LslTyiKPDMqE86C2AC75t0jzjHnkdvrXPR67fSwk1Qa9fXv+IS8QzqFfIFmu/Ckq/acDMF81jKo+l/t5O3iHNxZqfgUAAAAr77WXTydmuLajIhQAjfjYMDQdWk=</DataMashup>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C8F926E-9C4C-46BA-9E30-B1EE2CAF0D77}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/DataMashup"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>